--- a/Routing-Test-Scripts.xlsx
+++ b/Routing-Test-Scripts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaa-z490-localfiles\Computing-tools\PaloAltoNetworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D9AABB-E07F-4BE5-91D3-9CD303759D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB5B642-D3EC-4053-8515-7064745E1E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40490" yWindow="1840" windowWidth="17870" windowHeight="19290" xr2:uid="{C8A51C10-4A2A-4D56-B949-278F809B2C6E}"/>
+    <workbookView xWindow="58830" yWindow="480" windowWidth="17870" windowHeight="19290" xr2:uid="{C8A51C10-4A2A-4D56-B949-278F809B2C6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -156,38 +156,41 @@
     <t>no</t>
   </si>
   <si>
-    <t>52.39.43.99</t>
-  </si>
-  <si>
-    <t>54.212.154.191</t>
-  </si>
-  <si>
-    <t>44.236.163.135</t>
-  </si>
-  <si>
-    <t>52.24.49.46</t>
-  </si>
-  <si>
-    <t>52.42.226.217</t>
-  </si>
-  <si>
     <t>44.237.81.146</t>
   </si>
   <si>
-    <t>terraform-key-pair.dbad.pem</t>
-  </si>
-  <si>
     <t xml:space="preserve">ping -c 8 </t>
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>terraform-key-pair.1e5a.pem</t>
+  </si>
+  <si>
+    <t>52.32.246.242</t>
+  </si>
+  <si>
+    <t>54.68.22.69</t>
+  </si>
+  <si>
+    <t>34.212.238.59</t>
+  </si>
+  <si>
+    <t>34.212.86.153</t>
+  </si>
+  <si>
+    <t>54.185.169.163</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +224,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -300,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -315,11 +324,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +644,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -672,48 +679,52 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>46</v>
+      <c r="B4" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -721,14 +732,14 @@
       </c>
       <c r="B9" s="4" t="str">
         <f>$B$3</f>
-        <v>54.212.154.191</v>
+        <v>52.32.246.242</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>$B$2</f>
-        <v>terraform-key-pair.dbad.pem</v>
+        <v>terraform-key-pair.1e5a.pem</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -768,7 +779,7 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="1"/>
       <c r="E12" t="s">
         <v>41</v>
       </c>
@@ -780,7 +791,7 @@
       <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="1"/>
       <c r="E13" t="s">
         <v>41</v>
       </c>
@@ -795,7 +806,7 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="1"/>
       <c r="E14" t="s">
         <v>41</v>
       </c>
@@ -806,15 +817,15 @@
       </c>
       <c r="C15" s="12" t="str">
         <f>F15</f>
-        <v>52.42.226.217</v>
-      </c>
-      <c r="D15" s="16"/>
+        <v>54.185.169.163</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="11" t="str">
         <f>$B$5</f>
-        <v>52.42.226.217</v>
+        <v>54.185.169.163</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>13</v>
@@ -827,8 +838,8 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" t="s">
         <v>41</v>
       </c>
       <c r="H16" t="s">
@@ -842,8 +853,8 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -853,15 +864,15 @@
       </c>
       <c r="C18" s="13" t="str">
         <f>F18</f>
-        <v>52.24.49.46</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14" t="s">
+        <v>44.237.81.146</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="13" t="str">
-        <f>$C$4</f>
-        <v>52.24.49.46</v>
+        <f>$B$6</f>
+        <v>44.237.81.146</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -874,8 +885,8 @@
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" t="s">
         <v>41</v>
       </c>
       <c r="H19" t="s">
@@ -890,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="14" t="s">
+      <c r="E20" t="s">
         <v>41</v>
       </c>
       <c r="H20" t="s">
@@ -905,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="14" t="s">
+      <c r="E21" t="s">
         <v>41</v>
       </c>
       <c r="H21" t="s">
@@ -920,7 +931,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="14" t="s">
+      <c r="E22" t="s">
         <v>41</v>
       </c>
       <c r="H22" t="s">
@@ -933,14 +944,14 @@
       </c>
       <c r="B23" s="4" t="str">
         <f>$B$4</f>
-        <v>44.236.163.135</v>
+        <v>34.212.238.59</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="4" t="str">
         <f>$B$2</f>
-        <v>terraform-key-pair.dbad.pem</v>
+        <v>terraform-key-pair.1e5a.pem</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
@@ -948,13 +959,13 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="14" t="s">
+      <c r="E24" t="s">
         <v>41</v>
       </c>
       <c r="H24" t="s">
@@ -963,67 +974,67 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="14" t="s">
+      <c r="E25" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="14" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="14" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="14" t="s">
+      <c r="D28" s="1"/>
+      <c r="E28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11" t="str">
         <f>F29</f>
-        <v>52.42.226.217</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="14" t="s">
+        <v>54.185.169.163</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="11" t="str">
         <f>$B$5</f>
-        <v>52.42.226.217</v>
+        <v>54.185.169.163</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -1031,13 +1042,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="14" t="s">
+      <c r="D30" s="1"/>
+      <c r="E30" t="s">
         <v>41</v>
       </c>
       <c r="H30" t="s">
@@ -1046,31 +1057,31 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="14" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C32" s="13" t="str">
         <f>F32</f>
-        <v>52.24.49.46</v>
-      </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="14" t="s">
+        <v>44.237.81.146</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="13" t="str">
-        <f>$C$4</f>
-        <v>52.24.49.46</v>
+        <f>$B$6</f>
+        <v>44.237.81.146</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -1078,13 +1089,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" t="s">
         <v>41</v>
       </c>
       <c r="H33" t="s">
@@ -1093,13 +1104,13 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="14" t="s">
+      <c r="E34" t="s">
         <v>41</v>
       </c>
       <c r="H34" t="s">
@@ -1108,13 +1119,13 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="E35" s="14" t="s">
+      <c r="E35" t="s">
         <v>41</v>
       </c>
       <c r="H35" t="s">
@@ -1123,13 +1134,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="14" t="s">
+      <c r="D36" s="1"/>
+      <c r="E36" t="s">
         <v>41</v>
       </c>
       <c r="H36" t="s">
@@ -1142,14 +1153,14 @@
       </c>
       <c r="B37" s="4" t="str">
         <f>$B$5</f>
-        <v>52.42.226.217</v>
+        <v>54.185.169.163</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>$B$2</f>
-        <v>terraform-key-pair.dbad.pem</v>
+        <v>terraform-key-pair.1e5a.pem</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
@@ -1157,13 +1168,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="E38" s="14" t="s">
+      <c r="E38" t="s">
         <v>41</v>
       </c>
       <c r="H38" t="s">
@@ -1172,43 +1183,43 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="14" t="s">
-        <v>51</v>
+      <c r="E39" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="3"/>
-      <c r="E40" s="14" t="s">
-        <v>51</v>
+      <c r="E40" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C41" s="7" t="str">
         <f>F41</f>
-        <v>52.39.43.99</v>
-      </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="14" t="s">
+        <v>54.68.22.69</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" t="s">
         <v>41</v>
       </c>
       <c r="F41" s="7" t="str">
         <f>$C$3</f>
-        <v>52.39.43.99</v>
+        <v>54.68.22.69</v>
       </c>
       <c r="G41" t="s">
         <v>29</v>
@@ -1216,19 +1227,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C42" s="8" t="str">
         <f>F42</f>
-        <v>54.212.154.191</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="14" t="s">
+        <v>52.32.246.242</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" t="s">
         <v>41</v>
       </c>
       <c r="F42" s="8" t="str">
         <f>$B$3</f>
-        <v>54.212.154.191</v>
+        <v>52.32.246.242</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -1236,13 +1247,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="14" t="s">
+      <c r="D43" s="1"/>
+      <c r="E43" t="s">
         <v>41</v>
       </c>
       <c r="H43" t="s">
@@ -1251,43 +1262,43 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="14" t="s">
-        <v>51</v>
+      <c r="D44" s="3"/>
+      <c r="E44" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="14" t="s">
-        <v>51</v>
+      <c r="D45" s="3"/>
+      <c r="E45" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C46" s="9" t="str">
         <f>F46</f>
-        <v>44.236.163.135</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="14" t="s">
+        <v>34.212.238.59</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" t="s">
         <v>41</v>
       </c>
       <c r="F46" s="9" t="str">
         <f>$B$4</f>
-        <v>44.236.163.135</v>
+        <v>34.212.238.59</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
@@ -1295,19 +1306,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47" s="10" t="str">
         <f>F47</f>
-        <v>52.24.49.46</v>
-      </c>
-      <c r="D47" s="16"/>
-      <c r="E47" s="14" t="s">
+        <v>34.212.86.153</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" t="s">
         <v>41</v>
       </c>
       <c r="F47" s="10" t="str">
         <f>$C$4</f>
-        <v>52.24.49.46</v>
+        <v>34.212.86.153</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -1318,25 +1329,25 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
       </c>
-      <c r="D48" s="16"/>
-      <c r="E48" s="14" t="s">
+      <c r="D48" s="1"/>
+      <c r="E48" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="14" t="s">
+      <c r="D49" s="1"/>
+      <c r="E49" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1353,7 +1364,7 @@
       </c>
       <c r="D50" s="4" t="str">
         <f>$B$2</f>
-        <v>terraform-key-pair.dbad.pem</v>
+        <v>terraform-key-pair.1e5a.pem</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -1361,13 +1372,13 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="14" t="s">
+      <c r="E51" t="s">
         <v>41</v>
       </c>
       <c r="H51" t="s">
@@ -1376,43 +1387,43 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="3"/>
-      <c r="E52" s="14" t="s">
+      <c r="E52" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="14" t="s">
+      <c r="E53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C54" s="7" t="str">
         <f>F54</f>
-        <v>52.39.43.99</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="14" t="s">
+        <v>54.68.22.69</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" t="s">
         <v>41</v>
       </c>
       <c r="F54" s="7" t="str">
         <f>$C$3</f>
-        <v>52.39.43.99</v>
+        <v>54.68.22.69</v>
       </c>
       <c r="G54" t="s">
         <v>29</v>
@@ -1420,19 +1431,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C55" s="8" t="str">
         <f>F55</f>
-        <v>54.212.154.191</v>
-      </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="14" t="s">
+        <v>52.32.246.242</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" t="s">
         <v>41</v>
       </c>
       <c r="F55" s="8" t="str">
         <f>$B$3</f>
-        <v>54.212.154.191</v>
+        <v>52.32.246.242</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -1440,13 +1451,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="14" t="s">
+      <c r="D56" s="1"/>
+      <c r="E56" t="s">
         <v>41</v>
       </c>
       <c r="H56" t="s">
@@ -1455,43 +1466,43 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="14" t="s">
+      <c r="D57" s="3"/>
+      <c r="E57" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="14" t="s">
+      <c r="D58" s="3"/>
+      <c r="E58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C59" s="9" t="str">
         <f>F59</f>
-        <v>44.236.163.135</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="14" t="s">
+        <v>34.212.238.59</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" t="s">
         <v>41</v>
       </c>
       <c r="F59" s="9" t="str">
         <f>$B$4</f>
-        <v>44.236.163.135</v>
+        <v>34.212.238.59</v>
       </c>
       <c r="G59" t="s">
         <v>30</v>
@@ -1499,19 +1510,19 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C60" s="10" t="str">
         <f>F60</f>
-        <v>52.24.49.46</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="14" t="s">
+        <v>34.212.86.153</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" t="s">
         <v>41</v>
       </c>
       <c r="F60" s="10" t="str">
         <f>$C$4</f>
-        <v>52.24.49.46</v>
+        <v>34.212.86.153</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -1522,29 +1533,29 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="2"/>
-      <c r="E61" s="14" t="s">
+      <c r="E61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="E62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>32</v>

--- a/Routing-Test-Scripts.xlsx
+++ b/Routing-Test-Scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EB5B642-D3EC-4053-8515-7064745E1E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AD010-AF7A-4DD1-A8E6-420B34521A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58830" yWindow="480" windowWidth="17870" windowHeight="19290" xr2:uid="{C8A51C10-4A2A-4D56-B949-278F809B2C6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="62">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -156,9 +156,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>44.237.81.146</t>
-  </si>
-  <si>
     <t xml:space="preserve">ping -c 8 </t>
   </si>
   <si>
@@ -183,14 +180,44 @@
     <t>54.185.169.163</t>
   </si>
   <si>
+    <t>52.11.212.64</t>
+  </si>
+  <si>
     <t>xxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>1. Run all of the terraform build scripts and the RT-Associations.sh bash script</t>
+  </si>
+  <si>
+    <t>2. Get all of the public IPs from AWS and paste them into the cells B3 - C6</t>
+  </si>
+  <si>
+    <t>3. Download the new keypair file created by the terraform scripts and paste the name into B2.</t>
+  </si>
+  <si>
+    <t>4. Upload the keypair file into your ssh system to test from. A sample file name is :terraform-key-pair.1e5a.pem</t>
+  </si>
+  <si>
+    <t>5. Run the attribute changes as in the sss-attributes.bat script (for windows), in linux use chmod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Copy the ssh strings in blue, one at a time from your test system. Run the ssh, connect to the AWS system. </t>
+  </si>
+  <si>
+    <t>How to use this spreadsheet to check all of your AWS routes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Paste in all of the ping commands with IP addresses and check the results from your test host. Expected results are in column D. You can record actuals in column E if you chose. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,12 +231,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -226,13 +247,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,6 +332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -309,24 +360,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1F8394-05E2-4814-8794-161161E9BCE1}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -657,7 +710,7 @@
     <col min="8" max="8" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,60 +726,176 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F8" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+    </row>
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
@@ -742,7 +911,7 @@
         <v>terraform-key-pair.1e5a.pem</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -760,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>40</v>
       </c>
@@ -772,7 +941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -784,7 +953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>40</v>
       </c>
@@ -799,7 +968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>40</v>
       </c>
@@ -811,11 +980,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="12" t="str">
+      <c r="C15" s="11" t="str">
         <f>F15</f>
         <v>54.185.169.163</v>
       </c>
@@ -823,7 +992,7 @@
       <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="11" t="str">
+      <c r="F15" s="10" t="str">
         <f>$B$5</f>
         <v>54.185.169.163</v>
       </c>
@@ -831,7 +1000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -862,17 +1031,17 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="13" t="str">
+      <c r="C18" s="12" t="str">
         <f>F18</f>
-        <v>44.237.81.146</v>
+        <v>52.11.212.64</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="13" t="str">
+      <c r="F18" s="12" t="str">
         <f>$B$6</f>
-        <v>44.237.81.146</v>
+        <v>52.11.212.64</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -959,7 +1128,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -974,7 +1143,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
@@ -986,7 +1155,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
@@ -998,7 +1167,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -1010,7 +1179,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
@@ -1022,9 +1191,9 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="11" t="str">
+        <v>43</v>
+      </c>
+      <c r="C29" s="10" t="str">
         <f>F29</f>
         <v>54.185.169.163</v>
       </c>
@@ -1032,7 +1201,7 @@
       <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="11" t="str">
+      <c r="F29" s="10" t="str">
         <f>$B$5</f>
         <v>54.185.169.163</v>
       </c>
@@ -1042,7 +1211,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
@@ -1057,7 +1226,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -1069,19 +1238,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="13" t="str">
+        <v>43</v>
+      </c>
+      <c r="C32" s="12" t="str">
         <f>F32</f>
-        <v>44.237.81.146</v>
+        <v>52.11.212.64</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="13" t="str">
+      <c r="F32" s="12" t="str">
         <f>$B$6</f>
-        <v>44.237.81.146</v>
+        <v>52.11.212.64</v>
       </c>
       <c r="G32" t="s">
         <v>14</v>
@@ -1089,7 +1258,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -1104,7 +1273,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1119,7 +1288,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -1134,7 +1303,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
@@ -1168,7 +1337,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
@@ -1183,33 +1352,37 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="7" t="str">
+        <v>43</v>
+      </c>
+      <c r="C41" s="6" t="str">
         <f>F41</f>
         <v>54.68.22.69</v>
       </c>
@@ -1217,7 +1390,7 @@
       <c r="E41" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="7" t="str">
+      <c r="F41" s="6" t="str">
         <f>$C$3</f>
         <v>54.68.22.69</v>
       </c>
@@ -1227,9 +1400,9 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="8" t="str">
+        <v>43</v>
+      </c>
+      <c r="C42" s="7" t="str">
         <f>F42</f>
         <v>52.32.246.242</v>
       </c>
@@ -1237,7 +1410,7 @@
       <c r="E42" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="8" t="str">
+      <c r="F42" s="7" t="str">
         <f>$B$3</f>
         <v>52.32.246.242</v>
       </c>
@@ -1247,7 +1420,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1262,33 +1435,37 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="9" t="str">
+        <v>43</v>
+      </c>
+      <c r="C46" s="8" t="str">
         <f>F46</f>
         <v>34.212.238.59</v>
       </c>
@@ -1296,7 +1473,7 @@
       <c r="E46" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="9" t="str">
+      <c r="F46" s="8" t="str">
         <f>$B$4</f>
         <v>34.212.238.59</v>
       </c>
@@ -1306,9 +1483,9 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="10" t="str">
+        <v>43</v>
+      </c>
+      <c r="C47" s="9" t="str">
         <f>F47</f>
         <v>34.212.86.153</v>
       </c>
@@ -1316,7 +1493,7 @@
       <c r="E47" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="10" t="str">
+      <c r="F47" s="9" t="str">
         <f>$C$4</f>
         <v>34.212.86.153</v>
       </c>
@@ -1329,7 +1506,7 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
@@ -1341,7 +1518,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
@@ -1357,7 +1534,7 @@
       </c>
       <c r="B50" s="4" t="str">
         <f>$B$6</f>
-        <v>44.237.81.146</v>
+        <v>52.11.212.64</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>39</v>
@@ -1372,7 +1549,7 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
@@ -1387,33 +1564,37 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E52" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E53" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="7" t="str">
+        <v>43</v>
+      </c>
+      <c r="C54" s="6" t="str">
         <f>F54</f>
         <v>54.68.22.69</v>
       </c>
@@ -1421,7 +1602,7 @@
       <c r="E54" t="s">
         <v>41</v>
       </c>
-      <c r="F54" s="7" t="str">
+      <c r="F54" s="6" t="str">
         <f>$C$3</f>
         <v>54.68.22.69</v>
       </c>
@@ -1431,9 +1612,9 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="8" t="str">
+        <v>43</v>
+      </c>
+      <c r="C55" s="7" t="str">
         <f>F55</f>
         <v>52.32.246.242</v>
       </c>
@@ -1441,7 +1622,7 @@
       <c r="E55" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="8" t="str">
+      <c r="F55" s="7" t="str">
         <f>$B$3</f>
         <v>52.32.246.242</v>
       </c>
@@ -1451,7 +1632,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1466,33 +1647,37 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E57" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="9" t="str">
+        <v>43</v>
+      </c>
+      <c r="C59" s="8" t="str">
         <f>F59</f>
         <v>34.212.238.59</v>
       </c>
@@ -1500,7 +1685,7 @@
       <c r="E59" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="9" t="str">
+      <c r="F59" s="8" t="str">
         <f>$B$4</f>
         <v>34.212.238.59</v>
       </c>
@@ -1510,9 +1695,9 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="10" t="str">
+        <v>43</v>
+      </c>
+      <c r="C60" s="9" t="str">
         <f>F60</f>
         <v>34.212.86.153</v>
       </c>
@@ -1520,7 +1705,7 @@
       <c r="E60" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="10" t="str">
+      <c r="F60" s="9" t="str">
         <f>$C$4</f>
         <v>34.212.86.153</v>
       </c>
@@ -1533,7 +1718,7 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
@@ -1545,7 +1730,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
@@ -1555,7 +1740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>32</v>

--- a/Routing-Test-Scripts.xlsx
+++ b/Routing-Test-Scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295AD010-AF7A-4DD1-A8E6-420B34521A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA0FE29-8CDD-4AFD-84EB-14C37AF1D926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58830" yWindow="480" windowWidth="17870" windowHeight="19290" xr2:uid="{C8A51C10-4A2A-4D56-B949-278F809B2C6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="64">
   <si>
     <t xml:space="preserve">Source </t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t xml:space="preserve">7. Paste in all of the ping commands with IP addresses and check the results from your test host. Expected results are in column D. You can record actuals in column E if you chose. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ping -n 5 </t>
+  </si>
+  <si>
+    <t>From outside of AWS (no ssh, just run from your utility system)</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +344,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -371,15 +389,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1F8394-05E2-4814-8794-161161E9BCE1}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,20 +744,20 @@
       <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -748,152 +766,152 @@
       <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
@@ -984,7 +1002,7 @@
       <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="11" t="str">
+      <c r="C15" s="16" t="str">
         <f>F15</f>
         <v>54.185.169.163</v>
       </c>
@@ -992,7 +1010,7 @@
       <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="16" t="str">
         <f>$B$5</f>
         <v>54.185.169.163</v>
       </c>
@@ -1031,7 +1049,7 @@
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="12" t="str">
+      <c r="C18" s="18" t="str">
         <f>F18</f>
         <v>52.11.212.64</v>
       </c>
@@ -1039,7 +1057,7 @@
       <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="12" t="str">
+      <c r="F18" s="18" t="str">
         <f>$B$6</f>
         <v>52.11.212.64</v>
       </c>
@@ -1193,7 +1211,7 @@
       <c r="B29" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="10" t="str">
+      <c r="C29" s="17" t="str">
         <f>F29</f>
         <v>54.185.169.163</v>
       </c>
@@ -1201,7 +1219,7 @@
       <c r="E29" t="s">
         <v>41</v>
       </c>
-      <c r="F29" s="10" t="str">
+      <c r="F29" s="17" t="str">
         <f>$B$5</f>
         <v>54.185.169.163</v>
       </c>
@@ -1240,7 +1258,7 @@
       <c r="B32" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="12" t="str">
+      <c r="C32" s="18" t="str">
         <f>F32</f>
         <v>52.11.212.64</v>
       </c>
@@ -1248,7 +1266,7 @@
       <c r="E32" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="12" t="str">
+      <c r="F32" s="18" t="str">
         <f>$B$6</f>
         <v>52.11.212.64</v>
       </c>
@@ -1740,12 +1758,70 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="63" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="6" t="str">
+        <f>$C$3</f>
+        <v>54.68.22.69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="7" t="str">
+        <f>$B$3</f>
+        <v>52.32.246.242</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="8" t="str">
+        <f>$B$4</f>
+        <v>34.212.238.59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="9" t="str">
+        <f>$C$4</f>
+        <v>34.212.86.153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="17" t="str">
+        <f>$B$5</f>
+        <v>54.185.169.163</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="18" t="str">
+        <f>$B$6</f>
+        <v>52.11.212.64</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Routing-Test-Scripts.xlsx
+++ b/Routing-Test-Scripts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA0FE29-8CDD-4AFD-84EB-14C37AF1D926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56F9DD9-2C9B-4408-B9F7-DEDF56E0F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="58830" yWindow="480" windowWidth="17870" windowHeight="19290" xr2:uid="{C8A51C10-4A2A-4D56-B949-278F809B2C6E}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Pano2 to Pano1</t>
   </si>
   <si>
-    <t>key:</t>
-  </si>
-  <si>
     <t>PA-VM-1 pub</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>From outside of AWS (no ssh, just run from your utility system)</t>
+  </si>
+  <si>
+    <t>keypair file name:</t>
   </si>
 </sst>
 </file>
@@ -241,13 +241,6 @@
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,8 +275,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -389,21 +395,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9966FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -714,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1F8394-05E2-4814-8794-161161E9BCE1}">
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,200 +740,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="F8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F7" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="F8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="4" t="str">
         <f>$B$3</f>
         <v>52.32.246.242</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="4" t="str">
         <f>$B$2</f>
@@ -934,14 +945,14 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
         <v>5</v>
@@ -949,38 +960,38 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -988,29 +999,29 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="16" t="str">
+        <v>39</v>
+      </c>
+      <c r="C15" s="15" t="str">
         <f>F15</f>
         <v>54.185.169.163</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="16" t="str">
+        <v>40</v>
+      </c>
+      <c r="F15" s="15" t="str">
         <f>$B$5</f>
         <v>54.185.169.163</v>
       </c>
@@ -1020,14 +1031,14 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
@@ -1035,29 +1046,29 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="18" t="str">
+        <v>39</v>
+      </c>
+      <c r="C18" s="17" t="str">
         <f>F18</f>
         <v>52.11.212.64</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="18" t="str">
+        <v>40</v>
+      </c>
+      <c r="F18" s="17" t="str">
         <f>$B$6</f>
         <v>52.11.212.64</v>
       </c>
@@ -1067,14 +1078,14 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
         <v>19</v>
@@ -1082,14 +1093,14 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
         <v>20</v>
@@ -1097,14 +1108,14 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
         <v>21</v>
@@ -1112,14 +1123,14 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
@@ -1127,14 +1138,14 @@
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>$B$4</f>
         <v>34.212.238.59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="4" t="str">
         <f>$B$2</f>
@@ -1146,14 +1157,14 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
         <v>1</v>
@@ -1161,65 +1172,65 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="17" t="str">
+        <v>42</v>
+      </c>
+      <c r="C29" s="16" t="str">
         <f>F29</f>
         <v>54.185.169.163</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="17" t="str">
+        <v>40</v>
+      </c>
+      <c r="F29" s="16" t="str">
         <f>$B$5</f>
         <v>54.185.169.163</v>
       </c>
@@ -1229,14 +1240,14 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>26</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -1244,29 +1255,29 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="18" t="str">
+        <v>42</v>
+      </c>
+      <c r="C32" s="17" t="str">
         <f>F32</f>
         <v>52.11.212.64</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="18" t="str">
+        <v>40</v>
+      </c>
+      <c r="F32" s="17" t="str">
         <f>$B$6</f>
         <v>52.11.212.64</v>
       </c>
@@ -1276,14 +1287,14 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" t="s">
         <v>19</v>
@@ -1291,14 +1302,14 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
@@ -1306,14 +1317,14 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s">
         <v>21</v>
@@ -1321,14 +1332,14 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s">
         <v>22</v>
@@ -1336,14 +1347,14 @@
     </row>
     <row r="37" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="str">
         <f>$B$5</f>
         <v>54.185.169.163</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="4" t="str">
         <f>$B$2</f>
@@ -1355,14 +1366,14 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
         <v>23</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s">
         <v>1</v>
@@ -1370,35 +1381,35 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="6" t="str">
         <f>F41</f>
@@ -1406,7 +1417,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41" s="6" t="str">
         <f>$C$3</f>
@@ -1418,7 +1429,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C42" s="7" t="str">
         <f>F42</f>
@@ -1426,7 +1437,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="7" t="str">
         <f>$B$3</f>
@@ -1438,14 +1449,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s">
         <v>5</v>
@@ -1453,35 +1464,35 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="8" t="str">
         <f>F46</f>
@@ -1489,7 +1500,7 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46" s="8" t="str">
         <f>$B$4</f>
@@ -1501,7 +1512,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="9" t="str">
         <f>F47</f>
@@ -1509,7 +1520,7 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F47" s="9" t="str">
         <f>$C$4</f>
@@ -1524,38 +1535,38 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
         <v>26</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
         <v>27</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="4" t="str">
         <f>$B$6</f>
         <v>52.11.212.64</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" s="4" t="str">
         <f>$B$2</f>
@@ -1567,14 +1578,14 @@
         <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
         <v>23</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H51" t="s">
         <v>1</v>
@@ -1582,35 +1593,35 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
         <v>25</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>F54</f>
@@ -1618,7 +1629,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54" s="6" t="str">
         <f>$C$3</f>
@@ -1630,7 +1641,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="7" t="str">
         <f>F55</f>
@@ -1638,7 +1649,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" s="7" t="str">
         <f>$B$3</f>
@@ -1650,14 +1661,14 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s">
         <v>5</v>
@@ -1665,35 +1676,35 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C59" s="8" t="str">
         <f>F59</f>
@@ -1701,7 +1712,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F59" s="8" t="str">
         <f>$B$4</f>
@@ -1713,7 +1724,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C60" s="9" t="str">
         <f>F60</f>
@@ -1721,7 +1732,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F60" s="9" t="str">
         <f>$C$4</f>
@@ -1736,32 +1747,32 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
         <v>10</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -1769,7 +1780,7 @@
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="6" t="str">
         <f>$C$3</f>
@@ -1778,7 +1789,7 @@
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C66" s="7" t="str">
         <f>$B$3</f>
@@ -1787,7 +1798,7 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C67" s="8" t="str">
         <f>$B$4</f>
@@ -1796,7 +1807,7 @@
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" s="9" t="str">
         <f>$C$4</f>
@@ -1805,23 +1816,23 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="17" t="str">
+        <v>61</v>
+      </c>
+      <c r="C69" s="16" t="str">
         <f>$B$5</f>
         <v>54.185.169.163</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
-        <v>62</v>
-      </c>
-      <c r="C70" s="18" t="str">
+        <v>61</v>
+      </c>
+      <c r="C70" s="17" t="str">
         <f>$B$6</f>
         <v>52.11.212.64</v>
       </c>
     </row>
-    <row r="71" spans="2:3" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="2:3" s="10" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
